--- a/data/Команды.xlsx
+++ b/data/Команды.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C795B9-B405-4369-B7E0-490B99BB78A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A081BF5D-322A-44CE-8E27-CE1CA05F7C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="22485" windowHeight="20085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -286,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -562,15 +562,12 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -598,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -606,13 +603,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -620,13 +617,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -634,13 +631,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -648,13 +645,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -662,13 +659,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -676,13 +673,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -690,13 +687,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -704,13 +701,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -718,13 +715,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -732,13 +729,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -746,13 +743,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -760,13 +757,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -774,13 +771,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -788,13 +785,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -802,13 +799,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -816,13 +813,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -830,13 +827,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -844,13 +841,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -858,13 +855,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -872,13 +869,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -886,13 +883,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -900,13 +897,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -914,13 +911,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -928,13 +925,13 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -942,13 +939,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -956,13 +953,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D28">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -970,13 +967,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -984,13 +981,13 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -998,13 +995,13 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1012,13 +1009,13 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1026,13 +1023,13 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1040,13 +1037,13 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1054,13 +1051,13 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1068,13 +1065,13 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1082,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D37">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1096,13 +1093,13 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1110,13 +1107,13 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D39">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1124,13 +1121,13 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1138,13 +1135,13 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1152,13 +1149,13 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1166,13 +1163,13 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D43">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1180,13 +1177,13 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1194,13 +1191,13 @@
         <v>47</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D45">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1208,13 +1205,13 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1222,13 +1219,13 @@
         <v>49</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1236,13 +1233,13 @@
         <v>50</v>
       </c>
       <c r="C48">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D48">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1250,13 +1247,13 @@
         <v>51</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1264,13 +1261,13 @@
         <v>52</v>
       </c>
       <c r="C50">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D50">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1278,13 +1275,13 @@
         <v>53</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D51">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1292,13 +1289,13 @@
         <v>54</v>
       </c>
       <c r="C52">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1306,13 +1303,13 @@
         <v>55</v>
       </c>
       <c r="C53">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D53">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1320,13 +1317,13 @@
         <v>56</v>
       </c>
       <c r="C54">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1334,13 +1331,13 @@
         <v>57</v>
       </c>
       <c r="C55">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1348,13 +1345,13 @@
         <v>58</v>
       </c>
       <c r="C56">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1362,13 +1359,13 @@
         <v>59</v>
       </c>
       <c r="C57">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1376,13 +1373,13 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D58">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1390,13 +1387,13 @@
         <v>61</v>
       </c>
       <c r="C59">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D59">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1404,13 +1401,13 @@
         <v>62</v>
       </c>
       <c r="C60">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1418,13 +1415,13 @@
         <v>63</v>
       </c>
       <c r="C61">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1432,13 +1429,13 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D62">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1446,13 +1443,13 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1460,13 +1457,13 @@
         <v>66</v>
       </c>
       <c r="C64">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D64">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1474,13 +1471,13 @@
         <v>67</v>
       </c>
       <c r="C65">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D65">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1488,13 +1485,13 @@
         <v>68</v>
       </c>
       <c r="C66">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D66">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1502,13 +1499,13 @@
         <v>69</v>
       </c>
       <c r="C67">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D67">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1516,13 +1513,13 @@
         <v>70</v>
       </c>
       <c r="C68">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1530,13 +1527,13 @@
         <v>71</v>
       </c>
       <c r="C69">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D69">
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1544,13 +1541,13 @@
         <v>72</v>
       </c>
       <c r="C70">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1558,16 +1555,13 @@
         <v>73</v>
       </c>
       <c r="C71">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D71">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D71">
-    <sortCondition ref="C2:C71"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
